--- a/medicine/Handicap/École_de_Ngoenga/École_de_Ngoenga.xlsx
+++ b/medicine/Handicap/École_de_Ngoenga/École_de_Ngoenga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_Ngoenga</t>
+          <t>École_de_Ngoenga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'École de Ngoenga, aussi appelée Centre d'éducation spécialisé pour les jeunes handicapés tibétains, est une école tibétaine pour enfants handicapés située près de Dehradun en Inde[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École de Ngoenga, aussi appelée Centre d'éducation spécialisé pour les jeunes handicapés tibétains, est une école tibétaine pour enfants handicapés située près de Dehradun en Inde. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_Ngoenga</t>
+          <t>École_de_Ngoenga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école de Ngoenga est située à proximité du camp de réfugiès tibétains de Dekyiling, près de Dehradun dans l'Uttarakhand.
-L’école de Ngoenga dépend du ministère tibétain de la Santé. Elle a été fondée le 8 mars 2000, avec les financements du 14e dalaï-lama[2]. 
+L’école de Ngoenga dépend du ministère tibétain de la Santé. Elle a été fondée le 8 mars 2000, avec les financements du 14e dalaï-lama. 
 Elle prend en charge une cinquantaine d’enfants, sous la responsabilité de sept instituteurs, un physiothérapeute, sept « mères » et un « père ». Le personnel comprend 39 membres. 
 Ces enfants âgés de 6 à 18 ans souffrent de différents handicaps : malentendants, autistes, polyhandicapés. De juillet à fin avril, l'école les prend en charge, puis ils rentrent chez eux pour deux mois.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_Ngoenga</t>
+          <t>École_de_Ngoenga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste de directeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici une liste de directeurs de l'école :
 Namgyal Lhamo Taklha, 2000
